--- a/Lab4/Lab4.xlsx
+++ b/Lab4/Lab4.xlsx
@@ -1,62 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Studing\3 Course\5 Sem\МоПТиМ\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCBE348-65E2-4EC1-868A-26C06D71357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A9DFE-6670-4772-97B1-224F078C9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-112" yWindow="-112" windowWidth="24058" windowHeight="12911" xr2:uid="{C76A3B8F-0D49-49BB-B760-01D523E31C71}"/>
+    <workbookView xWindow="-112" yWindow="-112" windowWidth="24058" windowHeight="12911" activeTab="2" xr2:uid="{C76A3B8F-0D49-49BB-B760-01D523E31C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Задание 2 (комп)" sheetId="3" r:id="rId2"/>
+    <sheet name="Задание 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Задание 2 (комп)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Задание 2 (комп)'!$L$10:$P$10</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Задание 2 (комп)'!$L$10:$P$10</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Задание 2 (комп)'!$L$10:$P$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Задание 2 (комп)'!$R$13</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Задание 2 (комп)'!$L$10:$P$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Задание 2 (комп)'!$R$13</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Задание 1'!$C$5</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Задание 2 (комп)'!$L$17</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Задание 2 (комп)'!$C$4</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Задание 2 (комп)'!$L$17</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Задание 2 (комп)'!$C$4</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>f(x)</t>
   </si>
@@ -224,6 +225,36 @@
   </si>
   <si>
     <t>Числа Фибоначи</t>
+  </si>
+  <si>
+    <t>L =</t>
+  </si>
+  <si>
+    <t>192,193+237,116+326,177+106,066+34,907</t>
+  </si>
+  <si>
+    <t>q =</t>
+  </si>
+  <si>
+    <t>(40,391; 31,735; 49,674; 24,747; 15,304)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L = </t>
+  </si>
+  <si>
+    <t>(192,193; 237,116; 326,177; 106,066; 34,907)</t>
+  </si>
+  <si>
+    <t>189,737+236,643+324,962+105,830+34,641</t>
+  </si>
+  <si>
+    <t>(47,434; 33,806; 54,160; 26,458; 17,321)</t>
+  </si>
+  <si>
+    <t>(189,737; 236,643; 324,962; 105,830; 34,641)</t>
+  </si>
+  <si>
+    <t>(900*5/47,434 + 1/2*4*47,434) + (10*400/33,806 +1/2*7*33,806) + (11*800/54,160 + 1/2*6*54,160) + (7*200/26,458 + 1/2*4*26,458) + (2*150/17,321 + 1/2*2*17,321)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,6 +486,9 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -473,8 +507,370 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289090</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E9BE21-C843-99A9-DDCD-F2AB978BFF53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2180952" cy="5228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>299545</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>398159</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD48F28-8C41-A47F-32AF-3FF65B1956DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2191407" y="0"/>
+          <a:ext cx="1990476" cy="5285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409904</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546613</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515374D9-395D-8528-7A81-0F71E3F4882B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4193628" y="0"/>
+          <a:ext cx="2028571" cy="5285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>551793</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276929</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C09369D-175B-6FFB-A100-5B158A851B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6227379" y="0"/>
+          <a:ext cx="2247619" cy="5409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>283780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458585</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6521716-B447-B475-E715-A25FE1BF3924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8481849" y="0"/>
+          <a:ext cx="2066667" cy="5304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>26673</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94381B2-A98B-E260-8BC5-25A1B4D8455C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10562897" y="0"/>
+          <a:ext cx="2076190" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212834</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>539284</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D924E099-1374-BD52-6205-07EC56F92E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10342179" y="685800"/>
+          <a:ext cx="3479554" cy="889569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>599089</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>620196</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1D0581-D3F8-F0B4-674A-E7B748C89F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11359055" y="1545021"/>
+          <a:ext cx="1912967" cy="1007654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -762,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -772,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC82C95-D34A-4003-B3FF-3F80516963D8}">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
@@ -1787,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="17">
-        <f t="shared" ref="C44:C59" si="12">H43+(INDEX($B$43:$B$59,$B$39-A44-1+1)/INDEX($B$43:$B$59,$B$39-A44+1+1)*(I43-H43)-((-1)^($B$39-A44+1)/INDEX($B$43:$B$59,$B$39-A44+1+1))*$B$40)</f>
+        <f t="shared" ref="C44:C58" si="12">H43+(INDEX($B$43:$B$59,$B$39-A44-1+1)/INDEX($B$43:$B$59,$B$39-A44+1+1)*(I43-H43)-((-1)^($B$39-A44+1)/INDEX($B$43:$B$59,$B$39-A44+1+1))*$B$40)</f>
         <v>3.0557263560506067</v>
       </c>
       <c r="D44" s="17">
@@ -1831,27 +2227,27 @@
         <v>4.9442736439493933</v>
       </c>
       <c r="D45" s="17">
-        <f t="shared" ref="D45:D59" si="13">H44+(INDEX($B$43:$B$59,16-A45+1)/INDEX($B$43:$B$59,16-A45+1+1)*(I44-H44)-((-1)^(16-A45+1)/INDEX($B$43:$B$59,16-A45+1+1))*$B$40)</f>
+        <f t="shared" ref="D45:D58" si="13">H44+(INDEX($B$43:$B$59,16-A45+1)/INDEX($B$43:$B$59,16-A45+1+1)*(I44-H44)-((-1)^(16-A45+1)/INDEX($B$43:$B$59,16-A45+1+1))*$B$40)</f>
         <v>6.1114565893275525</v>
       </c>
       <c r="E45" s="17">
-        <f t="shared" ref="E45:E59" si="14">C45^2-11*C45+10</f>
+        <f t="shared" ref="E45:E58" si="14">C45^2-11*C45+10</f>
         <v>-19.941168217190718</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" ref="F45:F59" si="15">IF(E45&lt;=G45,"&lt;=","&gt;")</f>
+        <f t="shared" ref="F45:F58" si="15">IF(E45&lt;=G45,"&lt;=","&gt;")</f>
         <v>&lt;=</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" ref="G45:G59" si="16">D45^2-11*D45+10</f>
+        <f t="shared" ref="G45:G58" si="16">D45^2-11*D45+10</f>
         <v>-19.876120839367907</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" ref="H45:H59" si="17">IF(E45&lt;=G45,H44,C45)</f>
+        <f t="shared" ref="H45:H58" si="17">IF(E45&lt;=G45,H44,C45)</f>
         <v>3.0557263560506067</v>
       </c>
       <c r="I45" s="17">
-        <f t="shared" ref="I45:I59" si="18">IF(E45&lt;=G45,D45,I44)</f>
+        <f t="shared" ref="I45:I58" si="18">IF(E45&lt;=G45,D45,I44)</f>
         <v>6.1114565893275525</v>
       </c>
       <c r="L45"/>
@@ -1863,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ref="B46:B60" si="19">B44+B45</f>
+        <f t="shared" ref="B46:B59" si="19">B44+B45</f>
         <v>5</v>
       </c>
       <c r="C46" s="17">
@@ -3003,21 +3399,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81FC5D1-4D27-45AB-976D-EB52373AE78E}">
-  <dimension ref="B1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C720B757-B388-4572-957A-CE010FEEB1F9}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81FC5D1-4D27-45AB-976D-EB52373AE78E}">
+  <dimension ref="B1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.9" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="34.109375" style="6" customWidth="1"/>
+    <col min="4" max="11" width="8.88671875" style="6"/>
     <col min="12" max="12" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
@@ -3025,12 +3438,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
@@ -3038,7 +3451,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -3076,7 +3489,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
@@ -3114,7 +3527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
@@ -3152,7 +3565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
@@ -3190,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
@@ -3233,7 +3646,7 @@
         <v>15.303802971433464</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
@@ -3281,7 +3694,7 @@
         <v>19.602970618478881</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>39</v>
       </c>
@@ -3329,7 +3742,7 @@
         <v>30.607605942866929</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
@@ -3379,7 +3792,7 @@
       </c>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
@@ -3427,10 +3840,10 @@
         <v>34.906773589912348</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -3445,8 +3858,14 @@
         <f>SUM(L13:P13)</f>
         <v>899.99999999689567</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
@@ -3461,8 +3880,22 @@
         <f>SUM(L14:P14)</f>
         <v>896.45954004535861</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="R18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
         <v>36</v>
       </c>
@@ -3484,7 +3917,7 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
         <v>33</v>
       </c>
@@ -3507,8 +3940,14 @@
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="34"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
         <v>32</v>
       </c>
@@ -3531,6 +3970,29 @@
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="30"/>
+      <c r="R21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="R22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:19" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3546,5 +4008,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>